--- a/biology/Zoologie/Adhemarius_gannascus/Adhemarius_gannascus.xlsx
+++ b/biology/Zoologie/Adhemarius_gannascus/Adhemarius_gannascus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Adhemarius gannascus est une espèce de lépidoptères (papillons) de la famille des Sphingidae, de la sous-famille des Smerinthinae, de la tribu des Ambulycini.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure varie de 92 à 12 mm pour les mâles et de 98 à 124 mm pour les femelles.
 			Avers de la femelle (coll.MHNT)
@@ -546,9 +560,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est connue au Mexique, au Belize, au Guatemala, El Salvador, Honduras, Nicaragua, Costa Rica, au Panama, en Colombie, en Equateur, au Pérou, Venezuela, en Guyana, au Suriname, en Guyane française, en Bolivie, au Brésil, dans le nord de l'Argentine, le sud du Paraguay et de l'Uruguay[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est connue au Mexique, au Belize, au Guatemala, El Salvador, Honduras, Nicaragua, Costa Rica, au Panama, en Colombie, en Equateur, au Pérou, Venezuela, en Guyana, au Suriname, en Guyane française, en Bolivie, au Brésil, dans le nord de l'Argentine, le sud du Paraguay et de l'Uruguay.
 </t>
         </is>
       </c>
@@ -577,22 +593,93 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Adhemarius gannascus a été décrite par l'entomologiste Caspar Stoll, en 1790, sous le nom initial de Sphinx gannascus[2].
-Synonymie
-Sphinx gannascus (Stoll, 1790) Protonyme
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Adhemarius gannascus a été décrite par l'entomologiste Caspar Stoll, en 1790, sous le nom initial de Sphinx gannascus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Adhemarius_gannascus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adhemarius_gannascus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sphinx gannascus (Stoll, 1790) Protonyme
 Ambulyx janus Boisduval, 1870
 Ambulyx rostralis Boisduval, 1870
 Amplypterus germanus Zikán, 1934
 Amplypterus gannascus connexa (Closs, 1915)
 Amplypterus gannascus grisescens (Closs, 1915)
 Amplypterus gannascus magicus (Gehlen, 1928)
-Amplypterus gannascus rubra (Closs, 1911)
-Taxonomie
-Liste des sous-espèces
+Amplypterus gannascus rubra (Closs, 1911)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Adhemarius_gannascus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adhemarius_gannascus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des sous-espèces
 Adhemarius gannascus cubanus (Rothschild &amp; Jordan, 1908)
-Adhemarius gannascus jamaicensis (Rothschild &amp; Jordan, 1915) [3]
+Adhemarius gannascus jamaicensis (Rothschild &amp; Jordan, 1915) 
 			Adhemarius gannascus cubanus face dosale MHNT
 			Adhemarius gannascus cubanus revers MHNT
 </t>
